--- a/biology/Médecine/Indice_de_dose_de_scanographie_pondéré/Indice_de_dose_de_scanographie_pondéré.xlsx
+++ b/biology/Médecine/Indice_de_dose_de_scanographie_pondéré/Indice_de_dose_de_scanographie_pondéré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indice_de_dose_de_scanographie_pond%C3%A9r%C3%A9</t>
+          <t>Indice_de_dose_de_scanographie_pondéré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indice de dose de scanographie pondéré (IDSP) (en anglais CTDI sigle pour Computed Tomography Dose Index)[1],[2] est un indice utilisé en tomodensitométrie correspondant à la dose par patient et par coupe. Cet indice ne reflète pas la dose totale reçue par le patient[3],[4]. Il s'exprime en milligray (mGy).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indice de dose de scanographie pondéré (IDSP) (en anglais CTDI sigle pour Computed Tomography Dose Index), est un indice utilisé en tomodensitométrie correspondant à la dose par patient et par coupe. Cet indice ne reflète pas la dose totale reçue par le patient,. Il s'exprime en milligray (mGy).
 Il permet le calcul du produit dose x longueur (PDL) exprimé généralement en mGy·cm. 
-On obtient la dose reçue, exprimée en millisievert (mSv) en multipliant ce produit dose x longueur par un facteur fPDL (exprimé alors en mSv/mGy/cm) dépendant de la partie du corps examinée[1].
+On obtient la dose reçue, exprimée en millisievert (mSv) en multipliant ce produit dose x longueur par un facteur fPDL (exprimé alors en mSv/mGy/cm) dépendant de la partie du corps examinée.
 </t>
         </is>
       </c>
